--- a/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Teamplate_BaoCaoSoQuyTienMat.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Teamplate_BaoCaoSoQuyTienMat.xlsx
@@ -172,10 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +213,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="4">
@@ -265,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -328,23 +333,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -655,13 +663,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="25" customWidth="1"/>
     <col min="3" max="4" width="18.7109375" style="4" customWidth="1"/>
     <col min="5" max="7" width="14.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="37.85546875" style="12" customWidth="1"/>
@@ -670,33 +678,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:10" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="22"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="18" t="s">
@@ -709,7 +717,7 @@
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -736,7 +744,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="6"/>
@@ -747,7 +755,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
@@ -758,7 +766,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="26"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
@@ -769,7 +777,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
@@ -780,7 +788,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
@@ -791,7 +799,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="26"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
@@ -802,7 +810,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -813,7 +821,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -824,7 +832,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="26"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
@@ -835,7 +843,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
@@ -846,7 +854,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
@@ -857,7 +865,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="26"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -868,7 +876,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -879,7 +887,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
@@ -890,7 +898,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="26"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="6"/>
@@ -901,7 +909,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="6"/>
@@ -912,7 +920,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="6"/>
@@ -923,7 +931,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="26"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="6"/>
@@ -934,7 +942,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="6"/>
@@ -945,7 +953,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="26"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
@@ -956,7 +964,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="26"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
@@ -967,7 +975,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="26"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
@@ -978,7 +986,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="26"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="6"/>
@@ -989,7 +997,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="6"/>
@@ -1004,7 +1012,7 @@
     </row>
     <row r="30" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
@@ -1020,7 +1028,7 @@
     </row>
     <row r="31" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="27"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="17"/>
@@ -1036,7 +1044,7 @@
     </row>
     <row r="32" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="17"/>
@@ -1047,7 +1055,7 @@
     </row>
     <row r="33" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="27"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="17"/>
@@ -1063,7 +1071,7 @@
     </row>
     <row r="34" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="17"/>
